--- a/facturacion2.xlsx
+++ b/facturacion2.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:C2"/>
+  <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,6 +415,84 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>05-12-25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>30-4567577899-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>04-12-25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>04-12-25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>08-12-25</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1232453</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25323</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>512345235</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/facturacion2.xlsx
+++ b/facturacion2.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -390,14 +390,31 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tipo Facturacion</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Cuil</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
@@ -492,6 +509,58 @@
           <t>512345235</t>
         </is>
       </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12-12-25</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1234253</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>143252134</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>TauroComputacion</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1234124321</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>15-12-25</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>16546</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
